--- a/templates/excel/staffs_template.xlsx
+++ b/templates/excel/staffs_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="8D89"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="D244"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>02:右</t>
   </si>
   <si>
-    <t>e0147c452c5c0fc01371e1659b3a04a59c6ad66f2f3011deee6f559c2353c829f1abae9c8fe05b17567249e06be74906c4ae4f850a78b7a4605b71ef3ff12f1b</t>
+    <t>56f71fda424a6022ce654210e32bf4e4dbb1cb041d089a86e4049bdf1c2eed56fd1f9e646d4c8f1ddc89007ef77ea10cb9e4afaf06ee31941402956dca5aa6c5</t>
   </si>
 </sst>
 </file>

--- a/templates/excel/staffs_template.xlsx
+++ b/templates/excel/staffs_template.xlsx
@@ -455,8 +455,8 @@
     <col min="6" max="6" width="14" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
     <col min="8" max="8" width="14" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.38" customWidth="true" style="0"/>
+    <col min="10" max="10" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
